--- a/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001041293144226074</v>
+        <v>9.255011876424154e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>6.941954294840495e-06</v>
+        <v>6.170007917616102e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.255011876424154e-05</v>
+        <v>9.858210881551107e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>6.170007917616102e-06</v>
+        <v>6.572140587700738e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.858210881551107e-05</v>
+        <v>0.0082741379737854</v>
       </c>
       <c r="B2" t="n">
-        <v>6.572140587700738e-06</v>
+        <v>5.556842158351512e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0082741379737854</v>
+        <v>0.009613736470540365</v>
       </c>
       <c r="B2" t="n">
-        <v>5.556842158351512e-06</v>
+        <v>6.456505352948533e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Data Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009613736470540365</v>
+        <v>0.01469463507334391</v>
       </c>
       <c r="B2" t="n">
-        <v>6.456505352948533e-06</v>
+        <v>9.868794542205449e-06</v>
       </c>
     </row>
   </sheetData>
